--- a/Feature04_filtrar_tarefas/FiltrarTarefas.xlsx
+++ b/Feature04_filtrar_tarefas/FiltrarTarefas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\Aulas Faculdade\ProjetoUC\Feature04_filtrar_tarefas.py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\Aulas Faculdade\ProjetoUC\Feature04_filtrar_tarefas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636A5341-F555-4964-8A8F-5224F9CDE8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED2598A-1708-407F-AEDC-845329263BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24195" yWindow="0" windowWidth="15375" windowHeight="7875" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
